--- a/manufacture/bom.xlsx
+++ b/manufacture/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\n-blocks\n-dap\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{347BCB29-309F-4AB4-9222-A50B06488927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FB99E30-CB34-4364-9E36-362F7F76FFEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>Item #</t>
   </si>
@@ -39,7 +39,7 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>16:30</t>
+    <t>17:42</t>
   </si>
   <si>
     <t>Designator</t>
@@ -108,9 +108,6 @@
     <t>Y1</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
   </si>
   <si>
     <t>12MHz</t>
-  </si>
-  <si>
-    <t>N-5</t>
   </si>
   <si>
     <t>Footprint</t>
@@ -888,7 +882,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -913,19 +907,19 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -937,16 +931,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" s="7">
         <v>3</v>
@@ -954,23 +948,23 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:A23" si="0">ROW(A3) - ROW($A$1)</f>
+        <f t="shared" ref="A3:A22" si="0">ROW(A3) - ROW($A$1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="7">
         <v>2</v>
@@ -985,16 +979,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="7">
         <v>2</v>
@@ -1009,16 +1003,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
@@ -1033,16 +1027,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -1057,16 +1051,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -1081,16 +1075,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -1105,16 +1099,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -1129,16 +1123,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
@@ -1153,16 +1147,16 @@
         <v>14</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
@@ -1177,16 +1171,16 @@
         <v>15</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G12" s="7">
         <v>5</v>
@@ -1201,16 +1195,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
@@ -1225,16 +1219,16 @@
         <v>17</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
@@ -1249,16 +1243,16 @@
         <v>18</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
@@ -1273,16 +1267,16 @@
         <v>19</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -1297,16 +1291,16 @@
         <v>20</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -1321,16 +1315,16 @@
         <v>21</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -1345,16 +1339,16 @@
         <v>22</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7">
         <v>2</v>
@@ -1369,16 +1363,16 @@
         <v>23</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G20" s="7">
         <v>1</v>
@@ -1393,16 +1387,16 @@
         <v>24</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
@@ -1417,66 +1411,46 @@
         <v>25</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="7">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="20" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E24" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="19"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="19"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/manufacture/bom.xlsx
+++ b/manufacture/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\n-blocks\n-dap\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FB99E30-CB34-4364-9E36-362F7F76FFEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99FFB646-E546-431D-B58C-51652A87107B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
   <si>
     <t>Item #</t>
   </si>
@@ -39,7 +39,7 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>17:42</t>
+    <t>11:49</t>
   </si>
   <si>
     <t>Designator</t>
@@ -177,7 +177,7 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>0603_CAP_SMALL</t>
+    <t>0402_CAP</t>
   </si>
   <si>
     <t>0603_LED_RED</t>
@@ -198,7 +198,10 @@
     <t>SOT323/SC70-3_SMALL</t>
   </si>
   <si>
-    <t>0603_res_SMALL</t>
+    <t>0402_res</t>
+  </si>
+  <si>
+    <t>0402_RES</t>
   </si>
   <si>
     <t>BUTTON_4.7x3.5mm</t>
@@ -216,10 +219,13 @@
     <t>Manufacturer 1</t>
   </si>
   <si>
-    <t>Kyocera AVX</t>
-  </si>
-  <si>
-    <t>Murata</t>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>Walsin Technologies</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
   </si>
   <si>
     <t>Osram Opto</t>
@@ -237,12 +243,15 @@
     <t>Diodes</t>
   </si>
   <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductors</t>
+  </si>
+  <si>
     <t>Panasonic</t>
   </si>
   <si>
-    <t>Susumu</t>
-  </si>
-  <si>
     <t>NXP Semiconductors</t>
   </si>
   <si>
@@ -255,16 +264,16 @@
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>06035C104KAT2A</t>
-  </si>
-  <si>
-    <t>06031A180GAT2A</t>
-  </si>
-  <si>
-    <t>06035A330JAT2A/4K</t>
-  </si>
-  <si>
-    <t>GCM188R71C105KA64D</t>
+    <t>885012105016</t>
+  </si>
+  <si>
+    <t>0402N180F500CT</t>
+  </si>
+  <si>
+    <t>885012005058</t>
+  </si>
+  <si>
+    <t>JMK105BJ105KP-F</t>
   </si>
   <si>
     <t>LSQ976-NR-1</t>
@@ -282,25 +291,25 @@
     <t>BSS84W-7-F</t>
   </si>
   <si>
-    <t>ERJ-3EKF1002V</t>
-  </si>
-  <si>
-    <t>RR0816P-681-D</t>
-  </si>
-  <si>
-    <t>ERJ3EKF4700V</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF33R0V</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1501V</t>
-  </si>
-  <si>
-    <t>ERJ-3GEY0R00V</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ183V</t>
+    <t>CRCW040210K0FKEDC</t>
+  </si>
+  <si>
+    <t>CRCW0402680RFKEDC</t>
+  </si>
+  <si>
+    <t>CRCW0402470RFKEDC</t>
+  </si>
+  <si>
+    <t>CRCW040233R0FKEDC</t>
+  </si>
+  <si>
+    <t>CRCW04021K50FKEDC</t>
+  </si>
+  <si>
+    <t>CRCW04020000Z0EDC</t>
+  </si>
+  <si>
+    <t>CRCW040218K0FKED</t>
   </si>
   <si>
     <t>LPC11U35FHI33/501,</t>
@@ -913,13 +922,13 @@
         <v>48</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -937,16 +946,16 @@
         <v>49</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f t="shared" ref="A3:A22" si="0">ROW(A3) - ROW($A$1)</f>
         <v>2</v>
@@ -961,10 +970,10 @@
         <v>49</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G3" s="7">
         <v>2</v>
@@ -985,10 +994,10 @@
         <v>49</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7">
         <v>2</v>
@@ -1009,10 +1018,10 @@
         <v>49</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7">
         <v>2</v>
@@ -1033,10 +1042,10 @@
         <v>50</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -1057,10 +1066,10 @@
         <v>51</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -1081,10 +1090,10 @@
         <v>52</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G8" s="7">
         <v>1</v>
@@ -1105,7 +1114,7 @@
         <v>53</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>34</v>
@@ -1129,10 +1138,10 @@
         <v>54</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
@@ -1153,10 +1162,10 @@
         <v>55</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7">
         <v>1</v>
@@ -1177,10 +1186,10 @@
         <v>56</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G12" s="7">
         <v>5</v>
@@ -1201,16 +1210,16 @@
         <v>56</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f>ROW(A14) - ROW($A$1)</f>
         <v>13</v>
@@ -1222,19 +1231,19 @@
         <v>39</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1249,10 +1258,10 @@
         <v>56</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G15" s="7">
         <v>2</v>
@@ -1273,10 +1282,10 @@
         <v>56</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -1297,10 +1306,10 @@
         <v>56</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -1318,13 +1327,13 @@
         <v>43</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7">
         <v>1</v>
@@ -1342,10 +1351,10 @@
         <v>44</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>44</v>
@@ -1366,13 +1375,13 @@
         <v>45</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7">
         <v>1</v>
@@ -1390,13 +1399,13 @@
         <v>46</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G21" s="7">
         <v>1</v>
@@ -1414,13 +1423,13 @@
         <v>47</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>

--- a/manufacture/bom.xlsx
+++ b/manufacture/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\n-blocks\n-dap\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99FFB646-E546-431D-B58C-51652A87107B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33BF8A9E-CD35-435E-AE1F-28C2C630FBD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PurchaseList" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>n-DAP</t>
   </si>
   <si>
-    <t>11:49</t>
+    <t>16:30</t>
   </si>
   <si>
     <t>Designator</t>
